--- a/data/api_auto/uu_api/userinfo.xlsx
+++ b/data/api_auto/uu_api/userinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29000" windowHeight="13940"/>
+    <workbookView windowWidth="29080" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
   <si>
     <t>case_module</t>
   </si>
@@ -72,6 +72,102 @@
   </si>
   <si>
     <t>wait</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>设置语言</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/updateUserData</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token}"}</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>{"defaultLanguage":"en-US"}</t>
+  </si>
+  <si>
+    <t>{"$.success": true}</t>
+  </si>
+  <si>
+    <t>{"defaultLanguage":"zh-CN"}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/general/config/getAgentConfig</t>
+  </si>
+  <si>
+    <t>计价货币</t>
+  </si>
+  <si>
+    <t>/api/forex-balance/balance/v2/queryFiatConfigs</t>
+  </si>
+  <si>
+    <t>{"defaultFiatSymbol":"RMB"}</t>
+  </si>
+  <si>
+    <t>联系人管理</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/history/account/queryRelateCommonAccountPage?pageNum=1&amp;pageSize=10&amp;paymentType=recharge</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/history/account/queryRelateCommonAccountPage?pageNum=1&amp;pageSize=10&amp;paymentType=withdraw</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/payment/detail/QueryPaymentSimpleInfoList?paymentType=recharge</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/payment/detail/QueryPaymentSimpleInfoList?paymentType=withdraw</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/payment/detail/QueryPaymentSimpleInfoList?paymentId=21</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/history/account/addRelateCommonAccount</t>
+  </si>
+  <si>
+    <t>{"paymentId":21,"paymentUserCustomInfoList":[]}</t>
+  </si>
+  <si>
+    <t>{"paymentId":22,"paymentUserCustomInfoList":[{"id":2,"fieldValue":"请问"},{"id":1,"fieldValue":"123"}]}</t>
+  </si>
+  <si>
+    <t>官方验证</t>
+  </si>
+  <si>
+    <t>/api/forex-support/support/verifyChannel/channelTypeList</t>
+  </si>
+  <si>
+    <t>/api/forex-support/support/verifyChannel/query</t>
+  </si>
+  <si>
+    <t>{"channelType":"Telegram","channelValue":"@test"}</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/setting/faq/category?lang=zh_CN&amp;categoryId&amp;subject&amp;status=1&amp;page=1&amp;pageNum=99999</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/setting/faq/detail?page=1&amp;pageNum=9&amp;total=9&amp;lang=zh_CN&amp;subject&amp;categoryId=25&amp;status=1</t>
+  </si>
+  <si>
+    <t>/api/forex-user/public/uploadFile</t>
+  </si>
+  <si>
+    <t>multipart/form-data</t>
   </si>
 </sst>
 </file>
@@ -698,7 +794,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -707,6 +803,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1060,14 +1159,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1080,7 +1179,7 @@
     <col min="6" max="6" width="9.69230769230769" style="2" customWidth="1"/>
     <col min="7" max="7" width="68.9038461538462" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.6923076923077" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.3846153846154" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.4615384615385" style="2" customWidth="1"/>
     <col min="10" max="10" width="67.625" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="46" style="3" customWidth="1"/>
@@ -1117,16 +1216,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1134,6 +1233,443 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="34" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="17" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="51" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/userinfo.xlsx
+++ b/data/api_auto/uu_api/userinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940"/>
+    <workbookView windowWidth="29180" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
   <si>
     <t>case_module</t>
   </si>
@@ -164,10 +164,28 @@
     <t>/api/forex-setting/setting/faq/detail?page=1&amp;pageNum=9&amp;total=9&amp;lang=zh_CN&amp;subject&amp;categoryId=25&amp;status=1</t>
   </si>
   <si>
+    <t>修改头像</t>
+  </si>
+  <si>
     <t>/api/forex-user/public/uploadFile</t>
   </si>
   <si>
     <t>multipart/form-data</t>
+  </si>
+  <si>
+    <t>/images/im01.jpg</t>
+  </si>
+  <si>
+    <t>{"path_data":"$.data"}</t>
+  </si>
+  <si>
+    <t>{"account":"seven01","avatarUrl":"${path_data}"}</t>
+  </si>
+  <si>
+    <t>{"$.success": false}</t>
+  </si>
+  <si>
+    <t>{"account":"function:generate_account","avatarUrl":"path_data"}</t>
   </si>
 </sst>
 </file>
@@ -794,7 +812,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -803,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1159,14 +1174,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1181,7 +1196,7 @@
     <col min="8" max="8" width="31.6923076923077" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.4615384615385" style="2" customWidth="1"/>
     <col min="10" max="10" width="67.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.7692307692308" style="2" customWidth="1"/>
     <col min="12" max="12" width="46" style="3" customWidth="1"/>
     <col min="13" max="13" width="35.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="41.25" style="2" customWidth="1"/>
@@ -1216,16 +1231,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1585,7 +1600,7 @@
       <c r="F16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1621,55 +1636,85 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" ht="17" spans="1:14">
       <c r="A18" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" ht="17" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="N19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="1:14">
       <c r="A20" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/userinfo.xlsx
+++ b/data/api_auto/uu_api/userinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29180" windowHeight="14540"/>
+    <workbookView windowWidth="28000" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="59">
   <si>
     <t>case_module</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>{"account":"function:generate_account","avatarUrl":"path_data"}</t>
+  </si>
+  <si>
+    <t>请求数据</t>
+  </si>
+  <si>
+    <t>正常流程</t>
+  </si>
+  <si>
+    <t>参数正常</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/data</t>
+  </si>
+  <si>
+    <t>{"my_account":"$.data.account"}</t>
+  </si>
+  <si>
+    <t>{"$.success":true}</t>
   </si>
 </sst>
 </file>
@@ -1174,14 +1192,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1717,6 +1735,40 @@
         <v>22</v>
       </c>
     </row>
+    <row r="21" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/api_auto/uu_api/userinfo.xlsx
+++ b/data/api_auto/uu_api/userinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
     <t>/api/forex-user/user/data</t>
   </si>
   <si>
-    <t>{"my_account":"$.data.account"}</t>
+    <t>{"my_account":"$.data.account","my_uid":"$.data.uid"}</t>
   </si>
   <si>
     <t>{"$.success":true}</t>
@@ -1199,7 +1199,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1735,7 +1735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="17" spans="1:14">
+    <row r="21" s="2" customFormat="1" ht="34" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
